--- a/temp/pages/be-patient.xlsx
+++ b/temp/pages/be-patient.xlsx
@@ -721,7 +721,7 @@
   </si>
   <si>
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.
-It is RECOMMENDED to at least add one phone or email address.</t>
+It is RECOMMENDED to at least add one phone or email address with clear indication using the .use element whether it is home use, private use,...</t>
   </si>
   <si>
     <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>

--- a/temp/pages/be-patient.xlsx
+++ b/temp/pages/be-patient.xlsx
@@ -501,8 +501,8 @@
     <t>An identifier for this patient</t>
   </si>
   <si>
-    <t xml:space="preserve">An identifier for this patient.
-Typically, when SSIN is available it is used. Organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. </t>
+    <t>An identifier for this patient.
+Typically, when SSIN is available it is used. Organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. When an identifier is given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
@@ -677,8 +677,7 @@
     <t>Whether this patient record is in active use. 
 Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
 It is often used to filter patient lists to exclude inactive patients
-Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.
-It is RECOMMENDED to keep the value ‘true’ as long as the patient is still being treated by the provider of the data.</t>
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
   </si>
   <si>
     <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
@@ -700,8 +699,8 @@
     <t>A name associated with the patient</t>
   </si>
   <si>
-    <t xml:space="preserve">A name associated with the individual. 
-It is RECOMMENDED to give at least one familyname and at least one given name when possible and define an 'official' use. When names are given, the consumer SHALL record this in its consuming system. </t>
+    <t>A name associated with the individual. 
+It is RECOMMENDED to give at least one familyname and at least one given name when possible and define an 'official' use. When names are given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
@@ -858,7 +857,7 @@
   </si>
   <si>
     <t>An address for the individual. 
-It is RECOMMENDED to include an address when available.</t>
+It is RECOMMENDED to include an address when available. When needed to express the availablity of a Patient at home (e.g. only Wednesdays), another solution will be defined.</t>
   </si>
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.</t>
@@ -1107,7 +1106,7 @@
     <t>Whether patient is part of a multiple birth</t>
   </si>
   <si>
-    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer). Care SHOULD be given when exchanging Patient instances in a purely administrative flow.</t>
   </si>
   <si>
     <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
@@ -4927,7 +4926,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>39</v>
